--- a/data/protest_data.xlsx
+++ b/data/protest_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byun-yewon/KT_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byun-yewon/protest-alert-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89107342-E8BE-B043-9388-2DF8895C8A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC76C2FA-78C7-7D40-AF15-9106C91DB4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1240" windowWidth="27700" windowHeight="16420" xr2:uid="{70B49216-9BEC-1843-8429-8A3198284150}"/>
+    <workbookView xWindow="8540" yWindow="1240" windowWidth="20200" windowHeight="16420" xr2:uid="{70B49216-9BEC-1843-8429-8A3198284150}"/>
   </bookViews>
   <sheets>
     <sheet name="종로 pdf 18개 텍스트 크롤링" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
   <si>
     <t>src_file</t>
   </si>
@@ -355,47 +355,91 @@
     <t>광복회, 광복 80주년 기념 도심 행진 복원 / 연합뉴스TV (YonhapnewsTV)</t>
   </si>
   <si>
+    <t>광복절,광화문</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y-2R4Qq4wMw, https://www.newsis.com/view/NISX20250814_0003291100</t>
+  </si>
+  <si>
+    <t>8·15추진위 범시민대회 &amp; 야간 행진(태평R→세종R 일대)</t>
+  </si>
+  <si>
+    <t>250816(토) 인터넷집회.pdf</t>
+  </si>
+  <si>
+    <t>동화면세점 → 종로2R → 대한문 &lt;신문로1가 등&gt;</t>
+  </si>
+  <si>
+    <t>자유통일당</t>
+  </si>
+  <si>
+    <t>[오늘의 주요일정]사회(8월16일 토요일)</t>
+  </si>
+  <si>
+    <t>소녀상 ? 시청역 7出 &lt;세종대로 등&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/TwOrzg3gMRU, https://www.fnnews.com/news/202508160601539168</t>
+  </si>
+  <si>
+    <t>촛불행동 ‘내란세력 청산 촛불대행진’(소녀상↔시청역 7출)</t>
+  </si>
+  <si>
+    <t>250816(토) 인터넷집회.pdf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>250823(토) 인터넷집회.pdf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>동화면세점/교보빌딩 → 종로2R → 대한문 &lt;신문로1가 등&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.newsis.com/view/NISX20250815_0003292002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.newsis.com/view/NISX20250822_0003300355</t>
+  </si>
+  <si>
+    <t>[오늘의 주요일정]사회(8월23일 토요일)</t>
+  </si>
+  <si>
+    <t>자유통일당</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>태평R → 안국R → 광화문R → 세종R &lt;세종대로 등&gt;</t>
-  </si>
-  <si>
-    <t>광복절,광화문</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y-2R4Qq4wMw, https://www.newsis.com/view/NISX20250814_0003291100</t>
-  </si>
-  <si>
-    <t>8·15추진위 범시민대회 &amp; 야간 행진(태평R→세종R 일대)</t>
-  </si>
-  <si>
-    <t>250816(토) 인터넷집회.pdf</t>
-  </si>
-  <si>
-    <t>동화면세점 → 종로2R → 대한문 &lt;신문로1가 등&gt;</t>
-  </si>
-  <si>
-    <t>자유통일당</t>
-  </si>
-  <si>
-    <t>https://www.newsis.com/view/NISX20250815_0003292002</t>
-  </si>
-  <si>
-    <t>[오늘의 주요일정]사회(8월16일 토요일)</t>
-  </si>
-  <si>
-    <t>소녀상 ? 시청역 7出 &lt;세종대로 등&gt;</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/TwOrzg3gMRU, https://www.fnnews.com/news/202508160601539168</t>
-  </si>
-  <si>
-    <t>촛불행동 ‘내란세력 청산 촛불대행진’(소녀상↔시청역 7출)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>의정부터 → 종각R &lt;세종로&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>촛불행동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>250825(월) 인터넷집회.pdf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>교보빌딩 → 광화문R &lt;세종대로 등&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -555,6 +599,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -853,7 +906,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,8 +1033,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -994,8 +1050,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1038,6 +1097,7 @@
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="42" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1369,9 +1429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25132929-0FF9-094D-839E-F1CB1AADFD23}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
@@ -2238,7 +2300,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -2247,18 +2309,18 @@
         <v>1000</v>
       </c>
       <c r="H28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" t="s">
         <v>109</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>110</v>
-      </c>
-      <c r="J28" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1">
         <v>45885</v>
@@ -2270,7 +2332,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -2279,18 +2341,18 @@
         <v>90000</v>
       </c>
       <c r="H29" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" t="s">
         <v>114</v>
-      </c>
-      <c r="I29" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1">
         <v>45885</v>
@@ -2302,7 +2364,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -2314,14 +2376,104 @@
         <v>82</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
         <v>119</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31">
+        <v>90000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32">
+        <v>10000</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45894</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I29" r:id="rId1" xr:uid="{7938218B-2F99-D44C-837E-96A7E11C8295}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>